--- a/va_facility_data_2025-02-20/Crawford County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Crawford%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Crawford County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Crawford%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R371a892c4cff47d286cbeffb777609e9"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R295bff4d16a6445784eef88c58c7c862"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9f1e8d0c50df4c07aca0d855df07cd0f"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R6941db10d2374e46bccc83b292d7aa06"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9e2f274add7547b0a94328023a3a3edb"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4bfef7a3aee8413cb2e979708c2a2792"/>
   </x:sheets>
 </x:workbook>
 </file>
